--- a/academias/Química - Estadisticos 20242.xlsx
+++ b/academias/Química - Estadisticos 20242.xlsx
@@ -767,25 +767,25 @@
         <v>34</v>
       </c>
       <c r="E9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>94.09999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="I9" s="2">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>2.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -939,25 +939,25 @@
         <v>191</v>
       </c>
       <c r="E14">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1">
-        <v>91.59999999999999</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="I14" s="2">
         <v>8.199999999999999</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,25 +968,25 @@
         <v>272</v>
       </c>
       <c r="E15">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" s="1">
-        <v>91.2</v>
+        <v>91.5</v>
       </c>
       <c r="H15" s="1">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="I15" s="2">
         <v>8.4</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1057,25 +1057,25 @@
         <v>19</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>84.2</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>15.8</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1092,25 +1092,25 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="J3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1127,25 +1127,25 @@
         <v>13</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1162,25 +1162,25 @@
         <v>14</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1197,25 +1197,25 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1229,25 +1229,25 @@
         <v>81</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F7">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>3.7</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="J7">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1299,25 +1299,25 @@
         <v>34</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="J9">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1334,25 +1334,25 @@
         <v>31</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F10">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>93.5</v>
       </c>
       <c r="H10" s="1">
-        <v>100</v>
+        <v>6.5</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J10">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1369,25 +1369,25 @@
         <v>40</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="H11" s="1">
-        <v>100</v>
+        <v>2.5</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J11">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1404,25 +1404,25 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F12">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>95.8</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
+        <v>4.2</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J12">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1439,25 +1439,25 @@
         <v>38</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F13">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>100</v>
+        <v>2.6</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="J13">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>100</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1471,25 +1471,25 @@
         <v>191</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="F14">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>84.8</v>
       </c>
       <c r="H14" s="1">
-        <v>100</v>
+        <v>15.2</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="J14">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="K14" s="1">
-        <v>100</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1500,25 +1500,25 @@
         <v>272</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F15">
-        <v>272</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>88.2</v>
       </c>
       <c r="H15" s="1">
-        <v>100</v>
+        <v>11.8</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="J15">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="K15" s="1">
-        <v>100</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1589,19 +1589,19 @@
         <v>19</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1">
-        <v>78.90000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="H2" s="1">
-        <v>21.1</v>
+        <v>15.8</v>
       </c>
       <c r="I2" s="2">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1624,19 +1624,19 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1659,16 +1659,16 @@
         <v>13</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>84.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>8.199999999999999</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1761,16 +1761,16 @@
         <v>81</v>
       </c>
       <c r="E7">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
-        <v>90.09999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="H7" s="1">
-        <v>9.9</v>
+        <v>3.7</v>
       </c>
       <c r="I7" s="2">
         <v>8.6</v>
@@ -1831,25 +1831,25 @@
         <v>34</v>
       </c>
       <c r="E9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>94.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>2.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1866,19 +1866,19 @@
         <v>31</v>
       </c>
       <c r="E10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>90.3</v>
+        <v>93.5</v>
       </c>
       <c r="H10" s="1">
-        <v>9.699999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="I10" s="2">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1901,19 +1901,19 @@
         <v>40</v>
       </c>
       <c r="E11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>95</v>
+        <v>97.5</v>
       </c>
       <c r="H11" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I11" s="2">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>91.7</v>
+        <v>95.8</v>
       </c>
       <c r="H12" s="1">
-        <v>8.300000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="I12" s="2">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>38</v>
       </c>
       <c r="E13">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>92.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>7.9</v>
+        <v>2.6</v>
       </c>
       <c r="I13" s="2">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2003,25 +2003,25 @@
         <v>191</v>
       </c>
       <c r="E14">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1">
-        <v>91.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="H14" s="1">
-        <v>8.4</v>
+        <v>4.7</v>
       </c>
       <c r="I14" s="2">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2032,25 +2032,25 @@
         <v>272</v>
       </c>
       <c r="E15">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F15">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1">
-        <v>91.2</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>8.800000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="I15" s="2">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Química - Estadisticos 20242.xlsx
+++ b/academias/Química - Estadisticos 20242.xlsx
@@ -1264,25 +1264,25 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>16.7</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="J8">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1454,10 +1454,10 @@
         <v>9.1</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>2.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1471,25 +1471,25 @@
         <v>191</v>
       </c>
       <c r="E14">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F14">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1">
-        <v>84.8</v>
+        <v>95.3</v>
       </c>
       <c r="H14" s="1">
-        <v>15.2</v>
+        <v>4.7</v>
       </c>
       <c r="I14" s="2">
-        <v>7.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J14">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>13.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1500,25 +1500,25 @@
         <v>272</v>
       </c>
       <c r="E15">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="F15">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1">
-        <v>88.2</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>11.8</v>
+        <v>4.4</v>
       </c>
       <c r="I15" s="2">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="J15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
